--- a/excel/collective/zestawy_dla_uczniow/zestaw_014.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_014.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Mikołaj Wiśniewski</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>Wojciech Piotrowski</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
+    <t>Zuzanna Kubiak</t>
+  </si>
+  <si>
+    <t>Oliwia Olszewska</t>
+  </si>
+  <si>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -163,37 +163,37 @@
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>10,70</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>4,60</t>
+    <t>10,80</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,80</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,20</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,00</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,60</t>
+    <t>3,90</t>
   </si>
   <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,30</t>
+    <t>4,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>7,38</t>
+    <t>7,32</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>30,77</t>
+    <t>27,31</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>29,94</t>
+    <t>12,05</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>26,70</t>
+    <t>6,09</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>13,59</t>
+    <t>4,91</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>19,88</t>
-  </si>
-  <si>
-    <t>11,91</t>
-  </si>
-  <si>
-    <t>28,36</t>
-  </si>
-  <si>
-    <t>19,12</t>
-  </si>
-  <si>
-    <t>20,66</t>
+    <t>3,66</t>
+  </si>
+  <si>
+    <t>9,30</t>
+  </si>
+  <si>
+    <t>16,37</t>
+  </si>
+  <si>
+    <t>24,65</t>
+  </si>
+  <si>
+    <t>28,70</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>9,27</t>
-  </si>
-  <si>
-    <t>6,46</t>
-  </si>
-  <si>
-    <t>25,32</t>
-  </si>
-  <si>
-    <t>9,61</t>
-  </si>
-  <si>
-    <t>12,42</t>
+    <t>27,26</t>
+  </si>
+  <si>
+    <t>5,44</t>
+  </si>
+  <si>
+    <t>5,32</t>
+  </si>
+  <si>
+    <t>28,51</t>
+  </si>
+  <si>
+    <t>1,37</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -343,43 +343,46 @@
     <t>Lena</t>
   </si>
   <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Górska</t>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
   </si>
   <si>
     <t>Emilia</t>
   </si>
   <si>
-    <t>Olszewska</t>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
   </si>
   <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Krawczyk</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -415,139 +418,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Oliwia Jaworska</t>
-  </si>
-  <si>
-    <t>10.05.1980</t>
-  </si>
-  <si>
-    <t>11 100,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Zawadzka</t>
-  </si>
-  <si>
-    <t>17.12.1986</t>
-  </si>
-  <si>
-    <t>3 376,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>10.07.1988</t>
-  </si>
-  <si>
-    <t>11 799,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Malinowska</t>
-  </si>
-  <si>
-    <t>23.09.2002</t>
-  </si>
-  <si>
-    <t>8 316,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Malinowska</t>
-  </si>
-  <si>
-    <t>24.02.2005</t>
-  </si>
-  <si>
-    <t>3 979,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>02.08.2004</t>
-  </si>
-  <si>
-    <t>3 174,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>08.02.2001</t>
-  </si>
-  <si>
-    <t>11 132,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wojciechowski</t>
-  </si>
-  <si>
-    <t>03.07.1975</t>
-  </si>
-  <si>
-    <t>4 512,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>15.10.1977</t>
-  </si>
-  <si>
-    <t>10 843,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>07.03.1976</t>
-  </si>
-  <si>
-    <t>9 135,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Sikorska</t>
-  </si>
-  <si>
-    <t>25.10.1984</t>
-  </si>
-  <si>
-    <t>8 727,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kozłowski</t>
-  </si>
-  <si>
-    <t>17.12.1988</t>
-  </si>
-  <si>
-    <t>14 236,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Olszewska</t>
-  </si>
-  <si>
-    <t>05.07.1976</t>
-  </si>
-  <si>
-    <t>11 373,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>15.12.1998</t>
-  </si>
-  <si>
-    <t>12 477,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kozłowski</t>
-  </si>
-  <si>
-    <t>26.03.1975</t>
-  </si>
-  <si>
-    <t>5 441,00 zł</t>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>28.12.1998</t>
+  </si>
+  <si>
+    <t>3 214,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Wiśniewski</t>
+  </si>
+  <si>
+    <t>21.11.1995</t>
+  </si>
+  <si>
+    <t>10 848,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>04.12.1984</t>
+  </si>
+  <si>
+    <t>14 603,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Sikorska</t>
+  </si>
+  <si>
+    <t>23.03.1992</t>
+  </si>
+  <si>
+    <t>3 137,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>19.07.2003</t>
+  </si>
+  <si>
+    <t>11 063,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Krawczyk</t>
+  </si>
+  <si>
+    <t>07.05.1988</t>
+  </si>
+  <si>
+    <t>8 299,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kozłowski</t>
+  </si>
+  <si>
+    <t>07.11.2005</t>
+  </si>
+  <si>
+    <t>14 384,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Sikorska</t>
+  </si>
+  <si>
+    <t>11.05.2005</t>
+  </si>
+  <si>
+    <t>7 951,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>08.06.1990</t>
+  </si>
+  <si>
+    <t>3 317,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>24.07.1987</t>
+  </si>
+  <si>
+    <t>6 353,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>04.11.1980</t>
+  </si>
+  <si>
+    <t>2 517,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
+  </si>
+  <si>
+    <t>23.04.1976</t>
+  </si>
+  <si>
+    <t>3 248,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>06.05.2003</t>
+  </si>
+  <si>
+    <t>9 125,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -619,304 +604,316 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>885,00 zł</t>
+  </si>
+  <si>
+    <t>982,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 010,00 zł</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>698,00 zł</t>
-  </si>
-  <si>
-    <t>803,00 zł</t>
+    <t>1 055,00 zł</t>
+  </si>
+  <si>
+    <t>1 213,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>521,00 zł</t>
+  </si>
+  <si>
+    <t>641,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 330,00 zł</t>
+  </si>
+  <si>
+    <t>1 463,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 318,00 zł</t>
+  </si>
+  <si>
+    <t>1 727,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 287,00 zł</t>
+  </si>
+  <si>
+    <t>1 480,00 zł</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 458,00 zł</t>
+  </si>
+  <si>
+    <t>1 808,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>500,00 zł</t>
+  </si>
+  <si>
+    <t>590,00 zł</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 358,00 zł</t>
+  </si>
+  <si>
+    <t>1 847,00 zł</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 343,00 zł</t>
+  </si>
+  <si>
+    <t>1 759,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>574,00 zł</t>
+  </si>
+  <si>
+    <t>735,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 321,00 zł</t>
+  </si>
+  <si>
+    <t>1 493,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>895,00 zł</t>
+  </si>
+  <si>
+    <t>1 244,00 zł</t>
+  </si>
+  <si>
+    <t>1 384,00 zł</t>
+  </si>
+  <si>
+    <t>1 938,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 251,00 zł</t>
+  </si>
+  <si>
+    <t>1 601,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 067,00 zł</t>
+  </si>
+  <si>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>526,00 zł</t>
+  </si>
+  <si>
+    <t>594,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 053,00 zł</t>
+  </si>
+  <si>
+    <t>1 369,00 zł</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Luty</t>
+    <t>773,00 zł</t>
+  </si>
+  <si>
+    <t>1 119,00 zł</t>
+  </si>
+  <si>
+    <t>1 567,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 467,00 zł</t>
+  </si>
+  <si>
+    <t>1 936,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 456,00 zł</t>
+  </si>
+  <si>
+    <t>1 864,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>1 353,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>868,00 zł</t>
-  </si>
-  <si>
-    <t>1 180,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
+    <t>1 366,00 zł</t>
+  </si>
+  <si>
+    <t>1 748,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 048,00 zł</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>722,00 zł</t>
-  </si>
-  <si>
-    <t>903,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>1 528,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 091,00 zł</t>
-  </si>
-  <si>
-    <t>1 473,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 080,00 zł</t>
-  </si>
-  <si>
-    <t>1 512,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
-    <t>1 700,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 522,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>771,00 zł</t>
-  </si>
-  <si>
-    <t>925,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>953,00 zł</t>
-  </si>
-  <si>
-    <t>1 315,00 zł</t>
-  </si>
-  <si>
-    <t>1 470,00 zł</t>
-  </si>
-  <si>
-    <t>1 823,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>1 252,00 zł</t>
-  </si>
-  <si>
-    <t>1 565,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>764,00 zł</t>
-  </si>
-  <si>
-    <t>947,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
-    <t>1 865,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 218,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
-  </si>
-  <si>
-    <t>1 405,00 zł</t>
-  </si>
-  <si>
-    <t>1 546,00 zł</t>
-  </si>
-  <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 548,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>963,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 170,00 zł</t>
-  </si>
-  <si>
-    <t>1 615,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>1 715,00 zł</t>
-  </si>
-  <si>
-    <t>792,00 zł</t>
-  </si>
-  <si>
-    <t>982,00 zł</t>
+    <t>793,00 zł</t>
+  </si>
+  <si>
+    <t>960,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>1 238,00 zł</t>
+  </si>
+  <si>
+    <t>1 510,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1473,19 +1470,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1497,13 +1494,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1521,13 +1518,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1536,16 +1533,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
@@ -1560,16 +1557,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1584,10 +1581,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -1599,19 +1596,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
         <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1620,19 +1617,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1641,19 +1638,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
         <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1665,16 +1662,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1683,19 +1680,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1707,16 +1704,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1838,7 +1835,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1853,7 +1850,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1868,7 +1865,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1883,7 +1880,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1898,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1913,7 +1910,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2030,7 +2027,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2042,7 +2039,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2054,7 +2051,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2066,7 +2063,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2078,7 +2075,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2126,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2138,7 +2135,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2150,7 +2147,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2162,7 +2159,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2174,7 +2171,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2222,7 +2219,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2234,7 +2231,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2246,7 +2243,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2258,7 +2255,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2270,7 +2267,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2413,25 +2410,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2451,16 +2448,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>5</v>
@@ -2471,31 +2468,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2503,31 +2500,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2535,25 +2532,25 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
       </c>
       <c r="G16" s="3">
         <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>5</v>
@@ -2567,31 +2564,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2599,31 +2596,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2631,38 +2628,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3">
         <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2678,7 +2675,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2709,10 +2706,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2724,7 +2721,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2734,232 +2731,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B28" s="14" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2977,10 +2952,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2996,7 +2971,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3006,75 +2981,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3082,22 +3057,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3105,22 +3080,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3128,22 +3103,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3151,22 +3126,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3174,22 +3149,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3197,22 +3172,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3220,22 +3195,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3243,22 +3218,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3266,22 +3241,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3289,22 +3264,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3312,22 +3287,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3335,22 +3310,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3358,22 +3333,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3381,22 +3356,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3404,22 +3379,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3427,22 +3402,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3450,22 +3425,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3473,22 +3448,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3496,22 +3471,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3519,22 +3494,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3542,22 +3517,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3565,22 +3540,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3588,13 +3563,13 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>285</v>
@@ -3603,7 +3578,7 @@
         <v>286</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3611,22 +3586,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3634,22 +3609,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3657,50 +3632,35 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>298</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>176</v>
+      <c r="B45" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3708,7 +3668,7 @@
         <v>299</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3716,7 +3676,7 @@
         <v>300</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3724,7 +3684,7 @@
         <v>301</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3732,15 +3692,7 @@
         <v>302</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_014.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_014.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>10,80</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>7,32</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>27,31</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>12,05</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,09</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>4,91</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>3,66</t>
-  </si>
-  <si>
-    <t>9,30</t>
-  </si>
-  <si>
-    <t>16,37</t>
-  </si>
-  <si>
-    <t>24,65</t>
-  </si>
-  <si>
-    <t>28,70</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>27,26</t>
-  </si>
-  <si>
-    <t>5,44</t>
-  </si>
-  <si>
-    <t>5,32</t>
-  </si>
-  <si>
-    <t>28,51</t>
-  </si>
-  <si>
-    <t>1,37</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -424,117 +346,78 @@
     <t>28.12.1998</t>
   </si>
   <si>
-    <t>3 214,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Wiśniewski</t>
   </si>
   <si>
     <t>21.11.1995</t>
   </si>
   <si>
-    <t>10 848,00 zł</t>
-  </si>
-  <si>
     <t>Jan Woźniak</t>
   </si>
   <si>
     <t>04.12.1984</t>
   </si>
   <si>
-    <t>14 603,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Sikorska</t>
   </si>
   <si>
     <t>23.03.1992</t>
   </si>
   <si>
-    <t>3 137,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Wojciechowski</t>
   </si>
   <si>
     <t>19.07.2003</t>
   </si>
   <si>
-    <t>11 063,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Krawczyk</t>
   </si>
   <si>
     <t>07.05.1988</t>
   </si>
   <si>
-    <t>8 299,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kozłowski</t>
   </si>
   <si>
     <t>07.11.2005</t>
   </si>
   <si>
-    <t>14 384,00 zł</t>
-  </si>
-  <si>
     <t>Julia Sikorska</t>
   </si>
   <si>
     <t>11.05.2005</t>
   </si>
   <si>
-    <t>7 951,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Jankowski</t>
   </si>
   <si>
     <t>08.06.1990</t>
   </si>
   <si>
-    <t>3 317,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Krawczyk</t>
   </si>
   <si>
     <t>24.07.1987</t>
   </si>
   <si>
-    <t>6 353,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Kaźmierczak</t>
   </si>
   <si>
     <t>04.11.1980</t>
   </si>
   <si>
-    <t>2 517,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kowalczyk</t>
   </si>
   <si>
     <t>23.04.1976</t>
   </si>
   <si>
-    <t>3 248,00 zł</t>
-  </si>
-  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
     <t>06.05.2003</t>
   </si>
   <si>
-    <t>9 125,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -547,9 +430,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -610,12 +490,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>885,00 zł</t>
-  </si>
-  <si>
-    <t>982,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -628,12 +502,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -646,24 +514,12 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 055,00 zł</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>521,00 zł</t>
-  </si>
-  <si>
-    <t>641,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -673,12 +529,6 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 330,00 zł</t>
-  </si>
-  <si>
-    <t>1 463,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -688,12 +538,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 727,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -706,54 +550,24 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 287,00 zł</t>
-  </si>
-  <si>
-    <t>1 480,00 zł</t>
-  </si>
-  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 808,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>500,00 zł</t>
-  </si>
-  <si>
-    <t>590,00 zł</t>
-  </si>
-  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 847,00 zł</t>
-  </si>
-  <si>
     <t>kwiecień</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
-    <t>1 759,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -763,24 +577,12 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>574,00 zł</t>
-  </si>
-  <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -790,45 +592,15 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>895,00 zł</t>
-  </si>
-  <si>
-    <t>1 244,00 zł</t>
-  </si>
-  <si>
-    <t>1 384,00 zł</t>
-  </si>
-  <si>
-    <t>1 938,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 601,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 067,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>526,00 zł</t>
-  </si>
-  <si>
-    <t>594,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -838,60 +610,27 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 053,00 zł</t>
-  </si>
-  <si>
-    <t>1 369,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>773,00 zł</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
-    <t>1 936,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
-    <t>1 864,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 366,00 zł</t>
-  </si>
-  <si>
-    <t>1 748,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -901,19 +640,7 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>793,00 zł</t>
-  </si>
-  <si>
-    <t>960,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 510,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -935,7 +662,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -992,14 +721,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1010,8 +739,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1042,30 +771,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,7 +1098,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1443,25 +1173,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1484,7 +1214,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1505,7 +1235,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1526,7 +1256,7 @@
       <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1547,7 +1277,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1568,7 +1298,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1589,7 +1319,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1610,7 +1340,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1631,7 +1361,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1652,7 +1382,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1673,7 +1403,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1694,7 +1424,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1715,27 +1445,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1769,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1789,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1799,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1829,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10.8</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.8</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.1</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.2</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.9</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1954,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1979,113 +1699,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7.32</v>
       </c>
       <c r="C15" s="3">
         <v>21</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>27.31</v>
       </c>
       <c r="C16" s="3">
         <v>25</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>12.050000000000001</v>
       </c>
       <c r="C17" s="3">
         <v>27</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.09</v>
       </c>
       <c r="C18" s="3">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4.91</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2094,94 +1814,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.66</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9.3</v>
       </c>
       <c r="C25" s="3">
         <v>11</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>16.37</v>
       </c>
       <c r="C26" s="3">
         <v>27</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>24.65</v>
       </c>
       <c r="C27" s="3">
         <v>43</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>28.7</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2190,98 +1910,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>27.26</v>
       </c>
       <c r="C33" s="3">
         <v>9</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5.44</v>
       </c>
       <c r="C34" s="3">
         <v>13</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5.32</v>
       </c>
       <c r="C35" s="3">
         <v>21</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>28.51</v>
       </c>
       <c r="C36" s="3">
         <v>31</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1.37</v>
       </c>
       <c r="C37" s="3">
         <v>6</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2304,7 +2024,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2324,90 +2044,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2430,16 +2150,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2462,16 +2182,16 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2494,16 +2214,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2526,16 +2246,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2558,16 +2278,16 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2590,16 +2310,16 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2622,16 +2342,16 @@
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -2654,40 +2374,40 @@
       <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2720,222 +2440,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
+      <c r="A1" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10848</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14603</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11063</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8299</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14384</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7951</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3317</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6353</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2517</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3248</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>171</v>
+      <c r="A26" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2970,86 +2684,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>176</v>
+      <c r="A1" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>193</v>
+      <c r="A15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3057,22 +2771,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
+      </c>
+      <c r="D16" s="7">
+        <v>885</v>
+      </c>
+      <c r="E16" s="7">
+        <v>982</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3080,22 +2794,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1404</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3103,22 +2817,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1055</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1213</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3126,22 +2840,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>521</v>
+      </c>
+      <c r="E19" s="7">
+        <v>641</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3149,22 +2863,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1330</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1463</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3172,22 +2886,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1318</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1727</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3195,22 +2909,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1287</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1480</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3218,22 +2932,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1458</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1808</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3241,22 +2955,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>236</v>
+        <v>178</v>
+      </c>
+      <c r="D24" s="7">
+        <v>500</v>
+      </c>
+      <c r="E24" s="7">
+        <v>590</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3264,22 +2978,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1358</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1847</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3287,22 +3001,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1343</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1759</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3310,22 +3024,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>574</v>
+      </c>
+      <c r="E27" s="7">
+        <v>735</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3333,22 +3047,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>252</v>
+        <v>178</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1321</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1493</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3356,22 +3070,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
+      </c>
+      <c r="D29" s="7">
+        <v>895</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1244</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3379,22 +3093,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>259</v>
+        <v>176</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1384</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1938</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3402,22 +3116,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>178</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1251</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1601</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3425,22 +3139,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>191</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1344</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3448,22 +3162,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="7">
+        <v>526</v>
+      </c>
+      <c r="E33" s="7">
+        <v>594</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3471,22 +3185,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1053</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1369</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3494,22 +3208,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
+      </c>
+      <c r="D35" s="7">
+        <v>773</v>
+      </c>
+      <c r="E35" s="7">
+        <v>982</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3517,22 +3231,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1119</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1567</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3540,22 +3254,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>281</v>
+        <v>198</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1467</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1936</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3563,22 +3277,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1456</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1864</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3586,22 +3300,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>289</v>
+        <v>202</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1366</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1748</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3609,22 +3323,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>294</v>
+        <v>205</v>
+      </c>
+      <c r="D40" s="7">
+        <v>793</v>
+      </c>
+      <c r="E40" s="7">
+        <v>960</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3632,68 +3346,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>297</v>
+        <v>202</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1238</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1510</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>171</v>
+      <c r="A44" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>298</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_014.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_014.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 1</t>
   </si>
@@ -61,376 +62,403 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Kubiak</t>
-  </si>
-  <si>
-    <t>Oliwia Olszewska</t>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Adam Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan Wójcik</t>
+  </si>
+  <si>
+    <t>Mikołaj Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>Amelia Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Olszewska</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>Jan Kozłowski</t>
+  </si>
+  <si>
+    <t>Wojciech Nowak</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Filip Dąbrowski</t>
+  </si>
+  <si>
+    <t>Hanna Olszewska</t>
+  </si>
+  <si>
+    <t>Filip Szymański</t>
+  </si>
+  <si>
+    <t>Kacper Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>Maja Borkowska</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>Oliwia Kubiak</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Jan Mazur</t>
+  </si>
+  <si>
+    <t>Oliwia Sikorska</t>
+  </si>
+  <si>
+    <t>Julia Kaźmierczak</t>
   </si>
   <si>
     <t>Adam Krawczyk</t>
   </si>
   <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Antoni Mazur</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 14 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Wojciech Kozłowski</t>
-  </si>
-  <si>
-    <t>28.12.1998</t>
-  </si>
-  <si>
-    <t>Szymon Wiśniewski</t>
-  </si>
-  <si>
-    <t>21.11.1995</t>
-  </si>
-  <si>
-    <t>Jan Woźniak</t>
-  </si>
-  <si>
-    <t>04.12.1984</t>
-  </si>
-  <si>
-    <t>Natalia Sikorska</t>
-  </si>
-  <si>
-    <t>23.03.1992</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>19.07.2003</t>
-  </si>
-  <si>
-    <t>Kacper Krawczyk</t>
-  </si>
-  <si>
-    <t>07.05.1988</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
-  </si>
-  <si>
-    <t>07.11.2005</t>
-  </si>
-  <si>
-    <t>Julia Sikorska</t>
-  </si>
-  <si>
-    <t>11.05.2005</t>
-  </si>
-  <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>08.06.1990</t>
-  </si>
-  <si>
-    <t>Jakub Krawczyk</t>
-  </si>
-  <si>
-    <t>24.07.1987</t>
-  </si>
-  <si>
-    <t>Zuzanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>04.11.1980</t>
-  </si>
-  <si>
-    <t>Szymon Kowalczyk</t>
-  </si>
-  <si>
-    <t>23.04.1976</t>
-  </si>
-  <si>
-    <t>Adam Mazur</t>
-  </si>
-  <si>
-    <t>06.05.2003</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Julia Wilk</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalczyk</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>Szymon Dąbrowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Lewandowski</t>
+  </si>
+  <si>
+    <t>Aleksander Wójcik</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>Szymon Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kaczmarek</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -484,163 +512,130 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
+    <t>Kamera internetowa</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -712,7 +707,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,12 +730,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -782,13 +771,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1095,7 +1083,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,16 +1191,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1221,19 +1209,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1242,16 +1230,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -1263,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1284,16 +1272,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1305,19 +1293,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1326,19 +1314,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1347,19 +1335,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1368,16 +1356,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1389,19 +1377,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
         <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1410,16 +1398,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -1431,19 +1419,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
         <v>3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1456,6 +1444,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1489,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1509,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1519,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1549,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>10.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.6</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.8</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.5</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.2</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.2</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.5</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11.6</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1658,10 +1652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1699,27 +1693,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1727,85 +1721,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>7.32</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>27.07</v>
       </c>
       <c r="C15" s="3">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>27.31</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9.77</v>
       </c>
       <c r="C16" s="3">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>12.050000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>11.96</v>
       </c>
       <c r="C17" s="3">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.09</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15.88</v>
       </c>
       <c r="C18" s="3">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4.91</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>24.74</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1814,8 +1808,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1823,85 +1817,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>3.66</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>26.83</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>9.3</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8.8</v>
       </c>
       <c r="C25" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>16.37</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>15.53</v>
       </c>
       <c r="C26" s="3">
-        <v>27</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>24.65</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>26.94</v>
       </c>
       <c r="C27" s="3">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>28.7</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>9.59</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1910,8 +1904,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1919,89 +1913,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>27.26</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>24.26</v>
       </c>
       <c r="C33" s="3">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>5.44</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6.76</v>
       </c>
       <c r="C34" s="3">
-        <v>13</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>5.32</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>12.9</v>
       </c>
       <c r="C35" s="3">
-        <v>21</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>28.51</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>25.6</v>
       </c>
       <c r="C36" s="3">
-        <v>31</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1.37</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>20.65</v>
       </c>
       <c r="C37" s="3">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2021,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2044,105 +2046,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
@@ -2156,13 +2158,13 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
@@ -2171,13 +2173,13 @@
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
         <v>5</v>
@@ -2188,19 +2190,19 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -2209,10 +2211,10 @@
         <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2220,31 +2222,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2252,168 +2254,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
         <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>6</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>4</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,10 +2332,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2440,216 +2346,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>97</v>
+      <c r="A1" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3214</v>
+        <v>102</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6811</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10848</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14226</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="7">
-        <v>14603</v>
+        <v>104</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10884</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3137</v>
+        <v>105</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11063</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3467</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8299</v>
+        <v>107</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14384</v>
+        <v>108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7177</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7">
-        <v>7951</v>
+        <v>109</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11847</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3317</v>
+        <v>110</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4575</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6353</v>
+        <v>111</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7097</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2517</v>
+        <v>112</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10990</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3248</v>
+        <v>113</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9437</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9125</v>
+        <v>114</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3381</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>132</v>
+      <c r="A26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6807</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="6"/>
+      <c r="A27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2666,10 +2616,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>175</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>164</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>142</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>144</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>121</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>180</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>110</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>196</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>118</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>93</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>126</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>94</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>105</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>113</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>177</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3">
+        <v>189</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="3">
+        <v>95</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="3">
+        <v>129</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2684,86 +2863,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>136</v>
+      <c r="A1" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2771,22 +2950,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="7">
-        <v>885</v>
-      </c>
-      <c r="E16" s="7">
-        <v>982</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1438</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1956</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2794,22 +2973,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1010</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1404</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1034</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1365</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2817,22 +2996,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1055</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1213</v>
+        <v>170</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1335</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1615</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2840,22 +3019,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>521</v>
-      </c>
-      <c r="E19" s="7">
-        <v>641</v>
+        <v>170</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1266</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1545</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2863,22 +3042,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1330</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1463</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1437</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1609</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2886,19 +3065,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1318</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1727</v>
+        <v>177</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1041</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1353</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>173</v>
@@ -2909,22 +3088,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="8">
+        <v>929</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1096</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="7">
-        <v>1287</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1480</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2932,22 +3111,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1458</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1808</v>
+      <c r="D23" s="8">
+        <v>505</v>
+      </c>
+      <c r="E23" s="8">
+        <v>626</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2955,22 +3134,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="7">
-        <v>500</v>
-      </c>
-      <c r="E24" s="7">
-        <v>590</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1454</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1788</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2978,22 +3157,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1847</v>
+        <v>183</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1024</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1331</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3001,22 +3180,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="8">
+        <v>619</v>
+      </c>
+      <c r="E26" s="8">
+        <v>823</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1343</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1759</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3024,22 +3203,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="7">
-        <v>574</v>
-      </c>
-      <c r="E27" s="7">
-        <v>735</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1129</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1479</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3047,22 +3226,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1321</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1493</v>
+        <v>177</v>
+      </c>
+      <c r="D28" s="8">
+        <v>521</v>
+      </c>
+      <c r="E28" s="8">
+        <v>651</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3070,22 +3249,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="7">
-        <v>895</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1244</v>
+      <c r="D29" s="8">
+        <v>806</v>
+      </c>
+      <c r="E29" s="8">
+        <v>927</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3093,22 +3272,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1384</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1938</v>
+        <v>195</v>
+      </c>
+      <c r="D30" s="8">
+        <v>578</v>
+      </c>
+      <c r="E30" s="8">
+        <v>688</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3116,22 +3295,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1251</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1601</v>
+        <v>196</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1345</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1480</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3139,22 +3318,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1067</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1344</v>
+        <v>198</v>
+      </c>
+      <c r="D32" s="8">
+        <v>516</v>
+      </c>
+      <c r="E32" s="8">
+        <v>630</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3162,22 +3341,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="7">
-        <v>526</v>
-      </c>
-      <c r="E33" s="7">
-        <v>594</v>
+        <v>170</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1312</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1535</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3185,22 +3364,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1053</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1369</v>
+        <v>174</v>
+      </c>
+      <c r="D34" s="8">
+        <v>678</v>
+      </c>
+      <c r="E34" s="8">
+        <v>888</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3208,22 +3387,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="7">
-        <v>773</v>
-      </c>
-      <c r="E35" s="7">
-        <v>982</v>
+        <v>183</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1480</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1658</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3231,22 +3410,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1119</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1567</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1159</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1391</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3254,22 +3433,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1467</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1936</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="8">
+        <v>937</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1274</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3277,22 +3456,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1456</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1864</v>
+        <v>188</v>
+      </c>
+      <c r="D38" s="8">
+        <v>666</v>
+      </c>
+      <c r="E38" s="8">
+        <v>846</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3300,22 +3479,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1366</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1748</v>
+        <v>203</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1415</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1670</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3323,22 +3502,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="7">
-        <v>793</v>
-      </c>
-      <c r="E40" s="7">
-        <v>960</v>
+        <v>180</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1057</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1448</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3346,58 +3525,104 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1238</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1510</v>
+        <v>200</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1379</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1862</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1347</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1697</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1024</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1239</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="A46" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
